--- a/nutrition.xlsx
+++ b/nutrition.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xurong/Github_Repositories/Bodybuilding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5C79F6-FBBA-D34B-9D2F-963873FA3E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F337008B-23B3-9245-B51E-9636F0A93522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35020" yWindow="6460" windowWidth="28040" windowHeight="17440" xr2:uid="{12C3B9CA-6540-1F4E-9FB3-7FF445E4FDFD}"/>
+    <workbookView xWindow="37940" yWindow="5600" windowWidth="28040" windowHeight="17440" xr2:uid="{12C3B9CA-6540-1F4E-9FB3-7FF445E4FDFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="75">
   <si>
     <t>体重</t>
   </si>
@@ -122,13 +122,151 @@
   </si>
   <si>
     <t>蛋白（克）（对于运动人群 1.5-2.0克/公斤）</t>
+  </si>
+  <si>
+    <t>具体饮食</t>
+  </si>
+  <si>
+    <t>9点 练后餐</t>
+  </si>
+  <si>
+    <t>蛋白</t>
+  </si>
+  <si>
+    <t>碳水</t>
+  </si>
+  <si>
+    <t>脂肪</t>
+  </si>
+  <si>
+    <t>单次总蛋白</t>
+  </si>
+  <si>
+    <t>单次总碳水</t>
+  </si>
+  <si>
+    <t>单次总脂肪</t>
+  </si>
+  <si>
+    <t>练前餐</t>
+  </si>
+  <si>
+    <t>下午餐</t>
+  </si>
+  <si>
+    <t>午餐</t>
+  </si>
+  <si>
+    <t>10点餐</t>
+  </si>
+  <si>
+    <t>早餐</t>
+  </si>
+  <si>
+    <t>避免在摄入高GI碳水的同时摄入高脂肪，也要避免在摄入高GI的同时单位时间内摄入热量过高</t>
+  </si>
+  <si>
+    <t>在每一餐多吃低GI绿色蔬菜，摄入大量膳食纤维，增加食物种类与形态的复杂多样性。不仅可以降低心脏疾病风险，减少便秘几率，更能帮助身体维持平稳血糖。</t>
+  </si>
+  <si>
+    <t>以高GI碳水大米为例，单吃白米饭升糖很快，血糖波动明显。但当其与大量蔬菜混合食用摄入时，就会在一定程度上降低它原本的GI值，变得没那么容易“发胖”。</t>
+  </si>
+  <si>
+    <t>训练完我们需要着重补充的两大营养素：碳水化合物与蛋白质。一是给肌肉的恢复提供优质蛋白质，二是为下一次的训练做好充足的糖储备。</t>
+  </si>
+  <si>
+    <t>如果你认为“太晚了我明天白天吃”，那么这时糖原合成酶的活性降低，合成与恢复肌糖原的能力降低，且机体在不停的以糖异生的方式补充亏空的肌糖原，这时候身体就是在以流失肌肉为代价，非常不利于肌肉在训练后的全面恢复。</t>
+  </si>
+  <si>
+    <t>但请注意，当糖原储存达到饱和时，再向细胞提供额外的糖类，就会使多余的糖以脂肪的形式储存。</t>
+  </si>
+  <si>
+    <t>练后需按比例合理搭配，推荐的比例是高GI碳水：中GI碳水＝1:3。对于普通健身爱好者来说，推荐可选搭配为：大米＋糙米；土豆泥＋全麦面包；白面包＋燕麦</t>
+  </si>
+  <si>
+    <t>增肌期配额</t>
+  </si>
+  <si>
+    <t>纯新手 碳水3.5g 蛋白1.5g 脂肪1g</t>
+  </si>
+  <si>
+    <t>练2年后 碳水4.0g 蛋白质2g 脂肪1g</t>
+  </si>
+  <si>
+    <t>增肌期每月体重增长不要超过3斤 否则就要调碳水 蛋白脂肪不用动</t>
+  </si>
+  <si>
+    <t>减脂期配额</t>
+  </si>
+  <si>
+    <t>纯新手 碳水3.5g 全程缓减  蛋白1.5g 脂肪0.8g</t>
+  </si>
+  <si>
+    <t>有基础 碳水3.5g 全程缓减 蛋白2.0g 脂肪0.8g</t>
+  </si>
+  <si>
+    <t>碳水最少不宜低于2.5g 除非备赛 全程基本蛋白脂肪不动</t>
+  </si>
+  <si>
+    <t>碳水日内分配</t>
+  </si>
+  <si>
+    <t>三大营养素均能刺激胰岛素 碳水&gt;蛋白&gt;脂肪</t>
+  </si>
+  <si>
+    <t>早饭 全天碳水30% GI无所谓</t>
+  </si>
+  <si>
+    <t>训前 全天碳水20% 中等GI碳水 蛋白可吃可不吃 时间练前一刻钟 黑麦面包 玉米 香蕉 榴莲 葡萄干</t>
+  </si>
+  <si>
+    <t>为啥不建议提前一小时吃，因为不管GI如何，血糖都是摄入后半小时到1小时达峰，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">高GI碳水 也行 训练时分批吃 </t>
+  </si>
+  <si>
+    <t>训后 全天碳水50% 高GI碳水 拉升胰岛素 米饭 馒头 速食燕麦 烤红薯 旺仔小馒头</t>
+  </si>
+  <si>
+    <t>比如 萨迪克 练后 白米饭+烤鸡胸肉 61g蛋白（我们30-50g 9g脂肪 112g碳水）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">其他餐 不吃碳水 </t>
+  </si>
+  <si>
+    <t>碳水分配日变化，只改变训后餐碳水量，其他不变  腿/背&gt;胸&gt;肩/手臂&gt;休息日</t>
+  </si>
+  <si>
+    <t>例  腿背125g碳水  胸100g碳水 肩手臂75g碳水 休息日50g碳水</t>
+  </si>
+  <si>
+    <t>增肌减脂都是紧密围绕热量平衡点展开的，热量盈余10-20%，体重月增1-3斤（干净增肌），体重月增3斤以上再增都是脂肪（脏增肌）</t>
+  </si>
+  <si>
+    <t>减少10%-20%的热量摄入，就可以持续减脂，热量缺口&gt;30%不可持续减脂，体重先降后停滞</t>
+  </si>
+  <si>
+    <t>三大营养素摄入（北大松松总结）</t>
+  </si>
+  <si>
+    <t>上述配额动态调整 增肌1-3斤/月 减脂2-5斤/月 就合适 否则就调整碳水量，一次增减碳水的尺度是0.3-0.5倍体重</t>
+  </si>
+  <si>
+    <t>蛋白质  每天3-5次 每次30-50g</t>
+  </si>
+  <si>
+    <t>脂肪 练前一般不吃 练后不吃 其他避开胰岛素高峰吃</t>
+  </si>
+  <si>
+    <t>脂肪对蛋白质有缓释作用</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,13 +274,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF121212"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF121212"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -157,8 +313,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3703C23-CE8F-B847-AC42-DB7D87DF8853}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:R131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="133" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="133" workbookViewId="0">
+      <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -663,52 +822,718 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2088</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <f>A2*2</f>
         <v>151.4</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <f>(A34*0.3)/9</f>
         <v>69.599999999999994</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <f>(A34-(A38*4)-(A40*9))/4</f>
         <v>214.00000000000003</v>
+      </c>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <f>2*A2</f>
+        <v>151.4</v>
+      </c>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <f>0.8*A2</f>
+        <v>60.56</v>
+      </c>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f>3.5*A2</f>
+        <v>264.95</v>
+      </c>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" t="s">
+        <v>31</v>
+      </c>
+      <c r="E55" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" t="s">
+        <v>33</v>
+      </c>
+      <c r="G55" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" t="s">
+        <v>32</v>
+      </c>
+      <c r="I55" t="s">
+        <v>33</v>
+      </c>
+      <c r="J55" t="s">
+        <v>31</v>
+      </c>
+      <c r="K55" t="s">
+        <v>32</v>
+      </c>
+      <c r="L55" t="s">
+        <v>33</v>
+      </c>
+      <c r="M55" t="s">
+        <v>31</v>
+      </c>
+      <c r="N55" t="s">
+        <v>32</v>
+      </c>
+      <c r="O55" t="s">
+        <v>33</v>
+      </c>
+      <c r="P55" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>32</v>
+      </c>
+      <c r="R55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" t="s">
+        <v>31</v>
+      </c>
+      <c r="E59" t="s">
+        <v>32</v>
+      </c>
+      <c r="F59" t="s">
+        <v>33</v>
+      </c>
+      <c r="G59" t="s">
+        <v>31</v>
+      </c>
+      <c r="H59" t="s">
+        <v>32</v>
+      </c>
+      <c r="I59" t="s">
+        <v>33</v>
+      </c>
+      <c r="J59" t="s">
+        <v>31</v>
+      </c>
+      <c r="K59" t="s">
+        <v>32</v>
+      </c>
+      <c r="L59" t="s">
+        <v>33</v>
+      </c>
+      <c r="M59" t="s">
+        <v>31</v>
+      </c>
+      <c r="N59" t="s">
+        <v>32</v>
+      </c>
+      <c r="O59" t="s">
+        <v>33</v>
+      </c>
+      <c r="P59" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>32</v>
+      </c>
+      <c r="R59" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" t="s">
+        <v>31</v>
+      </c>
+      <c r="E63" t="s">
+        <v>32</v>
+      </c>
+      <c r="F63" t="s">
+        <v>33</v>
+      </c>
+      <c r="G63" t="s">
+        <v>31</v>
+      </c>
+      <c r="H63" t="s">
+        <v>32</v>
+      </c>
+      <c r="I63" t="s">
+        <v>33</v>
+      </c>
+      <c r="J63" t="s">
+        <v>31</v>
+      </c>
+      <c r="K63" t="s">
+        <v>32</v>
+      </c>
+      <c r="L63" t="s">
+        <v>33</v>
+      </c>
+      <c r="M63" t="s">
+        <v>31</v>
+      </c>
+      <c r="N63" t="s">
+        <v>32</v>
+      </c>
+      <c r="O63" t="s">
+        <v>33</v>
+      </c>
+      <c r="P63" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>32</v>
+      </c>
+      <c r="R63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64" t="s">
+        <v>35</v>
+      </c>
+      <c r="C64" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" t="s">
+        <v>31</v>
+      </c>
+      <c r="E67" t="s">
+        <v>32</v>
+      </c>
+      <c r="F67" t="s">
+        <v>33</v>
+      </c>
+      <c r="G67" t="s">
+        <v>31</v>
+      </c>
+      <c r="H67" t="s">
+        <v>32</v>
+      </c>
+      <c r="I67" t="s">
+        <v>33</v>
+      </c>
+      <c r="J67" t="s">
+        <v>31</v>
+      </c>
+      <c r="K67" t="s">
+        <v>32</v>
+      </c>
+      <c r="L67" t="s">
+        <v>33</v>
+      </c>
+      <c r="M67" t="s">
+        <v>31</v>
+      </c>
+      <c r="N67" t="s">
+        <v>32</v>
+      </c>
+      <c r="O67" t="s">
+        <v>33</v>
+      </c>
+      <c r="P67" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>32</v>
+      </c>
+      <c r="R67" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>34</v>
+      </c>
+      <c r="B68" t="s">
+        <v>35</v>
+      </c>
+      <c r="C68" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" t="s">
+        <v>31</v>
+      </c>
+      <c r="E71" t="s">
+        <v>32</v>
+      </c>
+      <c r="F71" t="s">
+        <v>33</v>
+      </c>
+      <c r="G71" t="s">
+        <v>31</v>
+      </c>
+      <c r="H71" t="s">
+        <v>32</v>
+      </c>
+      <c r="I71" t="s">
+        <v>33</v>
+      </c>
+      <c r="J71" t="s">
+        <v>31</v>
+      </c>
+      <c r="K71" t="s">
+        <v>32</v>
+      </c>
+      <c r="L71" t="s">
+        <v>33</v>
+      </c>
+      <c r="M71" t="s">
+        <v>31</v>
+      </c>
+      <c r="N71" t="s">
+        <v>32</v>
+      </c>
+      <c r="O71" t="s">
+        <v>33</v>
+      </c>
+      <c r="P71" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>32</v>
+      </c>
+      <c r="R71" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>34</v>
+      </c>
+      <c r="B72" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75" t="s">
+        <v>31</v>
+      </c>
+      <c r="E75" t="s">
+        <v>32</v>
+      </c>
+      <c r="F75" t="s">
+        <v>33</v>
+      </c>
+      <c r="G75" t="s">
+        <v>31</v>
+      </c>
+      <c r="H75" t="s">
+        <v>32</v>
+      </c>
+      <c r="I75" t="s">
+        <v>33</v>
+      </c>
+      <c r="J75" t="s">
+        <v>31</v>
+      </c>
+      <c r="K75" t="s">
+        <v>32</v>
+      </c>
+      <c r="L75" t="s">
+        <v>33</v>
+      </c>
+      <c r="M75" t="s">
+        <v>31</v>
+      </c>
+      <c r="N75" t="s">
+        <v>32</v>
+      </c>
+      <c r="O75" t="s">
+        <v>33</v>
+      </c>
+      <c r="P75" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>32</v>
+      </c>
+      <c r="R75" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>34</v>
+      </c>
+      <c r="B76" t="s">
+        <v>35</v>
+      </c>
+      <c r="C76" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/nutrition.xlsx
+++ b/nutrition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xurong/Github_Repositories/Bodybuilding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F337008B-23B3-9245-B51E-9636F0A93522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4C4DB8-59BB-8B4D-8633-DB69F74E7B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37940" yWindow="5600" windowWidth="28040" windowHeight="17440" xr2:uid="{12C3B9CA-6540-1F4E-9FB3-7FF445E4FDFD}"/>
+    <workbookView xWindow="21580" yWindow="6640" windowWidth="28040" windowHeight="17440" xr2:uid="{12C3B9CA-6540-1F4E-9FB3-7FF445E4FDFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
   <si>
     <t>体重</t>
   </si>
@@ -260,6 +260,30 @@
   </si>
   <si>
     <t>脂肪对蛋白质有缓释作用</t>
+  </si>
+  <si>
+    <t>加起来</t>
+  </si>
+  <si>
+    <t>两个鸡蛋</t>
+  </si>
+  <si>
+    <t>苹果</t>
+  </si>
+  <si>
+    <t>两片醇熟白面包</t>
+  </si>
+  <si>
+    <t>一勺蛋白粉</t>
+  </si>
+  <si>
+    <t>两勺蛋白粉</t>
+  </si>
+  <si>
+    <t>3片醇熟白面包</t>
+  </si>
+  <si>
+    <t>苹果或橙子</t>
   </si>
 </sst>
 </file>
@@ -287,7 +311,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,6 +321,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,11 +343,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,13 +663,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3703C23-CE8F-B847-AC42-DB7D87DF8853}">
-  <dimension ref="A1:R131"/>
+  <dimension ref="A1:E149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="133" workbookViewId="0">
-      <selection activeCell="B137" sqref="B137"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="133" workbookViewId="0">
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -897,6 +931,9 @@
       <c r="A45" t="s">
         <v>31</v>
       </c>
+      <c r="B45" t="s">
+        <v>75</v>
+      </c>
       <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -904,6 +941,10 @@
         <f>2*A2</f>
         <v>151.4</v>
       </c>
+      <c r="B46">
+        <f>A59+A69+A74+A79+A84+A89</f>
+        <v>150</v>
+      </c>
       <c r="E46" s="3"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -919,309 +960,128 @@
       </c>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>32</v>
       </c>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
-        <f>3.5*A2</f>
-        <v>264.95</v>
+        <f>3*A2</f>
+        <v>227.10000000000002</v>
+      </c>
+      <c r="B50">
+        <f>B59+B69+B74+B79+B84+B89</f>
+        <v>227.10000000000002</v>
       </c>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>30</v>
+      </c>
+      <c r="B59">
+        <f>0.3*A50</f>
+        <v>68.13000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>31</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B60" t="s">
         <v>32</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C60" t="s">
         <v>33</v>
       </c>
-      <c r="D55" t="s">
-        <v>31</v>
-      </c>
-      <c r="E55" t="s">
-        <v>32</v>
-      </c>
-      <c r="F55" t="s">
-        <v>33</v>
-      </c>
-      <c r="G55" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" t="s">
-        <v>32</v>
-      </c>
-      <c r="I55" t="s">
-        <v>33</v>
-      </c>
-      <c r="J55" t="s">
-        <v>31</v>
-      </c>
-      <c r="K55" t="s">
-        <v>32</v>
-      </c>
-      <c r="L55" t="s">
-        <v>33</v>
-      </c>
-      <c r="M55" t="s">
-        <v>31</v>
-      </c>
-      <c r="N55" t="s">
-        <v>32</v>
-      </c>
-      <c r="O55" t="s">
-        <v>33</v>
-      </c>
-      <c r="P55" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>32</v>
-      </c>
-      <c r="R55" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>34</v>
-      </c>
-      <c r="B56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C56" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>12</v>
+      </c>
+      <c r="B61">
+        <v>1.4</v>
+      </c>
+      <c r="C61">
+        <v>8.6</v>
+      </c>
+      <c r="D61" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>25</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>8.6</v>
+      </c>
+      <c r="B63">
+        <v>50</v>
+      </c>
+      <c r="C63">
+        <v>1.4</v>
+      </c>
+      <c r="D63" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>20</v>
+      </c>
+      <c r="D64" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>31</v>
-      </c>
-      <c r="B59" t="s">
-        <v>32</v>
-      </c>
-      <c r="C59" t="s">
-        <v>33</v>
-      </c>
-      <c r="D59" t="s">
-        <v>31</v>
-      </c>
-      <c r="E59" t="s">
-        <v>32</v>
-      </c>
-      <c r="F59" t="s">
-        <v>33</v>
-      </c>
-      <c r="G59" t="s">
-        <v>31</v>
-      </c>
-      <c r="H59" t="s">
-        <v>32</v>
-      </c>
-      <c r="I59" t="s">
-        <v>33</v>
-      </c>
-      <c r="J59" t="s">
-        <v>31</v>
-      </c>
-      <c r="K59" t="s">
-        <v>32</v>
-      </c>
-      <c r="L59" t="s">
-        <v>33</v>
-      </c>
-      <c r="M59" t="s">
-        <v>31</v>
-      </c>
-      <c r="N59" t="s">
-        <v>32</v>
-      </c>
-      <c r="O59" t="s">
-        <v>33</v>
-      </c>
-      <c r="P59" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>32</v>
-      </c>
-      <c r="R59" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>34</v>
-      </c>
-      <c r="B60" t="s">
-        <v>35</v>
-      </c>
-      <c r="C60" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>31</v>
-      </c>
-      <c r="B63" t="s">
-        <v>32</v>
-      </c>
-      <c r="C63" t="s">
-        <v>33</v>
-      </c>
-      <c r="D63" t="s">
-        <v>31</v>
-      </c>
-      <c r="E63" t="s">
-        <v>32</v>
-      </c>
-      <c r="F63" t="s">
-        <v>33</v>
-      </c>
-      <c r="G63" t="s">
-        <v>31</v>
-      </c>
-      <c r="H63" t="s">
-        <v>32</v>
-      </c>
-      <c r="I63" t="s">
-        <v>33</v>
-      </c>
-      <c r="J63" t="s">
-        <v>31</v>
-      </c>
-      <c r="K63" t="s">
-        <v>32</v>
-      </c>
-      <c r="L63" t="s">
-        <v>33</v>
-      </c>
-      <c r="M63" t="s">
-        <v>31</v>
-      </c>
-      <c r="N63" t="s">
-        <v>32</v>
-      </c>
-      <c r="O63" t="s">
-        <v>33</v>
-      </c>
-      <c r="P63" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>32</v>
-      </c>
-      <c r="R63" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>34</v>
-      </c>
-      <c r="B64" t="s">
-        <v>35</v>
-      </c>
-      <c r="C64" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>31</v>
-      </c>
-      <c r="B67" t="s">
-        <v>32</v>
-      </c>
-      <c r="C67" t="s">
-        <v>33</v>
-      </c>
-      <c r="D67" t="s">
-        <v>31</v>
-      </c>
-      <c r="E67" t="s">
-        <v>32</v>
-      </c>
-      <c r="F67" t="s">
-        <v>33</v>
-      </c>
-      <c r="G67" t="s">
-        <v>31</v>
-      </c>
-      <c r="H67" t="s">
-        <v>32</v>
-      </c>
-      <c r="I67" t="s">
-        <v>33</v>
-      </c>
-      <c r="J67" t="s">
-        <v>31</v>
-      </c>
-      <c r="K67" t="s">
-        <v>32</v>
-      </c>
-      <c r="L67" t="s">
-        <v>33</v>
-      </c>
-      <c r="M67" t="s">
-        <v>31</v>
-      </c>
-      <c r="N67" t="s">
-        <v>32</v>
-      </c>
-      <c r="O67" t="s">
-        <v>33</v>
-      </c>
-      <c r="P67" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>32</v>
-      </c>
-      <c r="R67" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>34</v>
       </c>
@@ -1232,84 +1092,51 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>20</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>31</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B70" t="s">
         <v>32</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C70" t="s">
         <v>33</v>
       </c>
-      <c r="D71" t="s">
-        <v>31</v>
-      </c>
-      <c r="E71" t="s">
-        <v>32</v>
-      </c>
-      <c r="F71" t="s">
-        <v>33</v>
-      </c>
-      <c r="G71" t="s">
-        <v>31</v>
-      </c>
-      <c r="H71" t="s">
-        <v>32</v>
-      </c>
-      <c r="I71" t="s">
-        <v>33</v>
-      </c>
-      <c r="J71" t="s">
-        <v>31</v>
-      </c>
-      <c r="K71" t="s">
-        <v>32</v>
-      </c>
-      <c r="L71" t="s">
-        <v>33</v>
-      </c>
-      <c r="M71" t="s">
-        <v>31</v>
-      </c>
-      <c r="N71" t="s">
-        <v>32</v>
-      </c>
-      <c r="O71" t="s">
-        <v>33</v>
-      </c>
-      <c r="P71" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>32</v>
-      </c>
-      <c r="R71" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>34</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>35</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>20</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>31</v>
       </c>
@@ -1319,220 +1146,299 @@
       <c r="C75" t="s">
         <v>33</v>
       </c>
-      <c r="D75" t="s">
+    </row>
+    <row r="76" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>34</v>
+      </c>
+      <c r="B78" t="s">
+        <v>35</v>
+      </c>
+      <c r="C78" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>20</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>31</v>
       </c>
-      <c r="E75" t="s">
+      <c r="B80" t="s">
         <v>32</v>
       </c>
-      <c r="F75" t="s">
+      <c r="C80" t="s">
         <v>33</v>
       </c>
-      <c r="G75" t="s">
+    </row>
+    <row r="81" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>34</v>
+      </c>
+      <c r="B83" t="s">
+        <v>35</v>
+      </c>
+      <c r="C83" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>20</v>
+      </c>
+      <c r="B84">
+        <f>0.2*A50</f>
+        <v>45.420000000000009</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>31</v>
       </c>
-      <c r="H75" t="s">
+      <c r="B85" t="s">
         <v>32</v>
       </c>
-      <c r="I75" t="s">
+      <c r="C85" t="s">
         <v>33</v>
       </c>
-      <c r="J75" t="s">
+    </row>
+    <row r="86" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>34</v>
+      </c>
+      <c r="B88" t="s">
+        <v>35</v>
+      </c>
+      <c r="C88" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>40</v>
+      </c>
+      <c r="B89">
+        <f>0.5*A50</f>
+        <v>113.55000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>31</v>
       </c>
-      <c r="K75" t="s">
+      <c r="B90" t="s">
         <v>32</v>
       </c>
-      <c r="L75" t="s">
+      <c r="C90" t="s">
         <v>33</v>
       </c>
-      <c r="M75" t="s">
-        <v>31</v>
-      </c>
-      <c r="N75" t="s">
-        <v>32</v>
-      </c>
-      <c r="O75" t="s">
-        <v>33</v>
-      </c>
-      <c r="P75" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>32</v>
-      </c>
-      <c r="R75" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>34</v>
-      </c>
-      <c r="B76" t="s">
-        <v>35</v>
-      </c>
-      <c r="C76" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>40</v>
+      </c>
+      <c r="D91" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B92">
+        <v>75</v>
+      </c>
+      <c r="D92" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B93">
+        <v>25</v>
+      </c>
+      <c r="D93" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
+    <row r="102" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
+    <row r="104" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
+    <row r="106" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
+    <row r="108" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
+    <row r="110" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
+    <row r="112" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>63</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>65</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>73</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
         <v>74</v>
       </c>
     </row>

--- a/nutrition.xlsx
+++ b/nutrition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xurong/Github_Repositories/Bodybuilding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4C4DB8-59BB-8B4D-8633-DB69F74E7B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA8E734-628F-5D4E-8607-A30B5E09818E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21580" yWindow="6640" windowWidth="28040" windowHeight="17440" xr2:uid="{12C3B9CA-6540-1F4E-9FB3-7FF445E4FDFD}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20420" xr2:uid="{12C3B9CA-6540-1F4E-9FB3-7FF445E4FDFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="93">
   <si>
     <t>体重</t>
   </si>
@@ -124,9 +124,6 @@
     <t>蛋白（克）（对于运动人群 1.5-2.0克/公斤）</t>
   </si>
   <si>
-    <t>具体饮食</t>
-  </si>
-  <si>
     <t>9点 练后餐</t>
   </si>
   <si>
@@ -163,33 +160,6 @@
     <t>早餐</t>
   </si>
   <si>
-    <t>避免在摄入高GI碳水的同时摄入高脂肪，也要避免在摄入高GI的同时单位时间内摄入热量过高</t>
-  </si>
-  <si>
-    <t>在每一餐多吃低GI绿色蔬菜，摄入大量膳食纤维，增加食物种类与形态的复杂多样性。不仅可以降低心脏疾病风险，减少便秘几率，更能帮助身体维持平稳血糖。</t>
-  </si>
-  <si>
-    <t>以高GI碳水大米为例，单吃白米饭升糖很快，血糖波动明显。但当其与大量蔬菜混合食用摄入时，就会在一定程度上降低它原本的GI值，变得没那么容易“发胖”。</t>
-  </si>
-  <si>
-    <t>训练完我们需要着重补充的两大营养素：碳水化合物与蛋白质。一是给肌肉的恢复提供优质蛋白质，二是为下一次的训练做好充足的糖储备。</t>
-  </si>
-  <si>
-    <t>如果你认为“太晚了我明天白天吃”，那么这时糖原合成酶的活性降低，合成与恢复肌糖原的能力降低，且机体在不停的以糖异生的方式补充亏空的肌糖原，这时候身体就是在以流失肌肉为代价，非常不利于肌肉在训练后的全面恢复。</t>
-  </si>
-  <si>
-    <t>但请注意，当糖原储存达到饱和时，再向细胞提供额外的糖类，就会使多余的糖以脂肪的形式储存。</t>
-  </si>
-  <si>
-    <t>练后需按比例合理搭配，推荐的比例是高GI碳水：中GI碳水＝1:3。对于普通健身爱好者来说，推荐可选搭配为：大米＋糙米；土豆泥＋全麦面包；白面包＋燕麦</t>
-  </si>
-  <si>
-    <t>增肌期配额</t>
-  </si>
-  <si>
-    <t>纯新手 碳水3.5g 蛋白1.5g 脂肪1g</t>
-  </si>
-  <si>
     <t>练2年后 碳水4.0g 蛋白质2g 脂肪1g</t>
   </si>
   <si>
@@ -284,31 +254,79 @@
   </si>
   <si>
     <t>苹果或橙子</t>
+  </si>
+  <si>
+    <t>总摄入热量</t>
+  </si>
+  <si>
+    <t>具体饮食（运动天）</t>
+  </si>
+  <si>
+    <t>具体饮食（休息日）</t>
+  </si>
+  <si>
+    <t>蛋白粉</t>
+  </si>
+  <si>
+    <t>清炒菜一人份5g油，重油菜一人份10-15g油</t>
+  </si>
+  <si>
+    <t>蔬菜</t>
+  </si>
+  <si>
+    <t>练前餐，练后餐避免脂肪</t>
+  </si>
+  <si>
+    <t>脂肪会影响对蛋白质，糖原的吸收率，避免胰岛素高的时候摄入脂肪</t>
+  </si>
+  <si>
+    <t>亚麻籽油每天只需要3克，就能满足人体对n3的需求，n6相对容易获取</t>
+  </si>
+  <si>
+    <t>脂肪摄入量其实不低于20%就不影响睾酮水平，不影响增肌</t>
+  </si>
+  <si>
+    <t>脂肪胃排空要4-5小时，小肠完全吸收3小时，即脂肪吃完要8个小时完全吸收</t>
+  </si>
+  <si>
+    <t>吃脂肪避开胰岛素高峰没意义，也避不开，</t>
+  </si>
+  <si>
+    <t>脂肪延缓胃排空，练前吃觉得肚子有东西，练后吃营养物质吸收慢，所以避开练前练后就可以</t>
+  </si>
+  <si>
+    <t>油焖茄子，干锅包菜这种吸油的菜绝对不要吃</t>
+  </si>
+  <si>
+    <t>下午餐3点</t>
+  </si>
+  <si>
+    <t>练前餐6点</t>
+  </si>
+  <si>
+    <t>亚麻籽油</t>
+  </si>
+  <si>
+    <t>鸡胸</t>
+  </si>
+  <si>
+    <t>粗粮面包</t>
+  </si>
+  <si>
+    <t>亚麻籽油（若早餐无蔬菜中油，这里20）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF121212"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF121212"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -343,10 +361,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -663,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3703C23-CE8F-B847-AC42-DB7D87DF8853}">
-  <dimension ref="A1:E149"/>
+  <dimension ref="A1:E202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="133" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -867,74 +883,81 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="3"/>
+      <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="3"/>
+      <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <f>A2*2</f>
         <v>151.4</v>
       </c>
-      <c r="E38" s="3"/>
+      <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="3"/>
+      <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <f>(A34*0.3)/9</f>
         <v>69.599999999999994</v>
       </c>
-      <c r="E40" s="3"/>
+      <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="3"/>
+      <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <f>(A34-(A38*4)-(A40*9))/4</f>
         <v>214.00000000000003</v>
       </c>
-      <c r="E42" s="3"/>
+      <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E43" s="3"/>
+      <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>70</v>
-      </c>
-      <c r="E44" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="D44" t="s">
+        <v>73</v>
+      </c>
+      <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
-      </c>
-      <c r="E45" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="D45">
+        <f>A46*4+A48*9+A50*4</f>
+        <v>2059.04</v>
+      </c>
+      <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
@@ -942,29 +965,33 @@
         <v>151.4</v>
       </c>
       <c r="B46">
-        <f>A59+A69+A74+A79+A84+A89</f>
+        <f>A59+A69+A76+A84+A91+A98</f>
         <v>150</v>
       </c>
-      <c r="E46" s="3"/>
+      <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>33</v>
-      </c>
-      <c r="E47" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <f>0.8*A2</f>
         <v>60.56</v>
       </c>
-      <c r="E48" s="3"/>
+      <c r="B48">
+        <f>C59+C69+C76+C84+C91+C98</f>
+        <v>60</v>
+      </c>
+      <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E49" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
@@ -972,37 +999,37 @@
         <v>227.10000000000002</v>
       </c>
       <c r="B50">
-        <f>B59+B69+B74+B79+B84+B89</f>
+        <f>B59+B69+B76+B84+B91+B98</f>
         <v>227.10000000000002</v>
       </c>
-      <c r="E50" s="3"/>
+      <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" t="s">
         <v>34</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>35</v>
-      </c>
-      <c r="C58" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -1013,16 +1040,19 @@
         <f>0.3*A50</f>
         <v>68.13000000000001</v>
       </c>
+      <c r="C59">
+        <v>20</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" t="s">
         <v>31</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>32</v>
-      </c>
-      <c r="C60" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -1036,7 +1066,7 @@
         <v>8.6</v>
       </c>
       <c r="D61" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -1050,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -1064,7 +1094,7 @@
         <v>1.4</v>
       </c>
       <c r="D63" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -1072,132 +1102,154 @@
         <v>20</v>
       </c>
       <c r="D64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C65">
+        <v>10</v>
+      </c>
+      <c r="D65" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68" t="s">
         <v>34</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>35</v>
       </c>
-      <c r="C68" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>20</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" t="s">
         <v>31</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>32</v>
       </c>
-      <c r="C70" t="s">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>20</v>
+      </c>
+      <c r="D71" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C72">
+        <v>10</v>
+      </c>
+      <c r="D72" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="B75" t="s">
         <v>34</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C75" t="s">
         <v>35</v>
       </c>
-      <c r="C73" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
         <v>20</v>
       </c>
-      <c r="B74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>30</v>
+      </c>
+      <c r="B77" t="s">
         <v>31</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C77" t="s">
         <v>32</v>
       </c>
-      <c r="C75" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>34</v>
-      </c>
-      <c r="B78" t="s">
-        <v>35</v>
-      </c>
-      <c r="C78" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>20</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>31</v>
-      </c>
-      <c r="B80" t="s">
-        <v>32</v>
-      </c>
-      <c r="C80" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>33</v>
+      </c>
+      <c r="B83" t="s">
         <v>34</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>35</v>
-      </c>
-      <c r="C83" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -1205,241 +1257,636 @@
         <v>20</v>
       </c>
       <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" t="s">
+        <v>31</v>
+      </c>
+      <c r="C85" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>20</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="D86" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>30</v>
+      </c>
+      <c r="D87" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>33</v>
+      </c>
+      <c r="B90" t="s">
+        <v>34</v>
+      </c>
+      <c r="C90" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>20</v>
+      </c>
+      <c r="B91">
         <f>0.2*A50</f>
         <v>45.420000000000009</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>30</v>
+      </c>
+      <c r="B92" t="s">
         <v>31</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C92" t="s">
         <v>32</v>
       </c>
-      <c r="C85" t="s">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>20</v>
+      </c>
+      <c r="D93" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B94">
+        <v>50</v>
+      </c>
+      <c r="D94" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+      <c r="B97" t="s">
         <v>34</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C97" t="s">
         <v>35</v>
       </c>
-      <c r="C88" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98">
         <v>40</v>
       </c>
-      <c r="B89">
+      <c r="B98">
         <f>0.5*A50</f>
         <v>113.55000000000001</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+      <c r="C98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>30</v>
+      </c>
+      <c r="B99" t="s">
         <v>31</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C99" t="s">
         <v>32</v>
       </c>
-      <c r="C90" t="s">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>40</v>
+      </c>
+      <c r="D100" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B101">
+        <v>75</v>
+      </c>
+      <c r="D101" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B102">
+        <v>25</v>
+      </c>
+      <c r="D102" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91">
+      <c r="B110" t="s">
+        <v>34</v>
+      </c>
+      <c r="C110" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>30</v>
+      </c>
+      <c r="B111">
+        <f>0.3*A102</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>30</v>
+      </c>
+      <c r="B112" t="s">
+        <v>31</v>
+      </c>
+      <c r="C112" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>12</v>
+      </c>
+      <c r="B113">
+        <v>1.4</v>
+      </c>
+      <c r="C113">
+        <v>8.6</v>
+      </c>
+      <c r="D113" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>0</v>
+      </c>
+      <c r="B114">
+        <v>25</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>8.6</v>
+      </c>
+      <c r="B115">
+        <v>50</v>
+      </c>
+      <c r="C115">
+        <v>1.4</v>
+      </c>
+      <c r="D115" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>20</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C117">
+        <v>10</v>
+      </c>
+      <c r="D117" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>33</v>
+      </c>
+      <c r="B120" t="s">
+        <v>34</v>
+      </c>
+      <c r="C120" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>20</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>30</v>
+      </c>
+      <c r="B122" t="s">
+        <v>31</v>
+      </c>
+      <c r="C122" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>33</v>
+      </c>
+      <c r="B127" t="s">
+        <v>34</v>
+      </c>
+      <c r="C127" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>20</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>30</v>
+      </c>
+      <c r="B129" t="s">
+        <v>31</v>
+      </c>
+      <c r="C129" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>33</v>
+      </c>
+      <c r="B132" t="s">
+        <v>34</v>
+      </c>
+      <c r="C132" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>20</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>30</v>
+      </c>
+      <c r="B134" t="s">
+        <v>31</v>
+      </c>
+      <c r="C134" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>33</v>
+      </c>
+      <c r="B138" t="s">
+        <v>34</v>
+      </c>
+      <c r="C138" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>20</v>
+      </c>
+      <c r="B139">
+        <f>0.2*A102</f>
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>30</v>
+      </c>
+      <c r="B140" t="s">
+        <v>31</v>
+      </c>
+      <c r="C140" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>33</v>
+      </c>
+      <c r="B143" t="s">
+        <v>34</v>
+      </c>
+      <c r="C143" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144">
         <v>40</v>
       </c>
-      <c r="D91" t="s">
+      <c r="B144">
+        <f>0.5*A102</f>
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>30</v>
+      </c>
+      <c r="B145" t="s">
+        <v>31</v>
+      </c>
+      <c r="C145" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>40</v>
+      </c>
+      <c r="D146" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B147">
+        <v>75</v>
+      </c>
+      <c r="D147" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B148">
+        <v>25</v>
+      </c>
+      <c r="D148" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B92">
-        <v>75</v>
-      </c>
-      <c r="D92" t="s">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B93">
-        <v>25</v>
-      </c>
-      <c r="D93" t="s">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="95" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>74</v>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/nutrition.xlsx
+++ b/nutrition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xurong/Github_Repositories/Bodybuilding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA8E734-628F-5D4E-8607-A30B5E09818E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D88D2B-6201-F848-8E24-5F3D205CDAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20420" xr2:uid="{12C3B9CA-6540-1F4E-9FB3-7FF445E4FDFD}"/>
+    <workbookView xWindow="7980" yWindow="4260" windowWidth="34560" windowHeight="20420" xr2:uid="{12C3B9CA-6540-1F4E-9FB3-7FF445E4FDFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="102">
   <si>
     <t>体重</t>
   </si>
@@ -314,6 +314,33 @@
   </si>
   <si>
     <t>亚麻籽油（若早餐无蔬菜中油，这里20）</t>
+  </si>
+  <si>
+    <t>第一次调整碳水-80×0.5=40g碳水</t>
+  </si>
+  <si>
+    <t>全天碳水</t>
+  </si>
+  <si>
+    <t>227-40=187</t>
+  </si>
+  <si>
+    <t>早</t>
+  </si>
+  <si>
+    <t>前</t>
+  </si>
+  <si>
+    <t>后</t>
+  </si>
+  <si>
+    <t>一袋豆包</t>
+  </si>
+  <si>
+    <t>2个素包子</t>
+  </si>
+  <si>
+    <t>2片粗粮面包</t>
   </si>
 </sst>
 </file>
@@ -679,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3703C23-CE8F-B847-AC42-DB7D87DF8853}">
-  <dimension ref="A1:E202"/>
+  <dimension ref="A1:E218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="D214" sqref="D214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1889,6 +1916,60 @@
         <v>86</v>
       </c>
     </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>56</v>
+      </c>
+      <c r="B214" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>37</v>
+      </c>
+      <c r="B216" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>93</v>
+      </c>
+      <c r="B218" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nutrition.xlsx
+++ b/nutrition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xurong/Github_Repositories/Bodybuilding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D88D2B-6201-F848-8E24-5F3D205CDAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3ACA71-8A9C-944D-9938-5354CCB3912A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7980" yWindow="4260" windowWidth="34560" windowHeight="20420" xr2:uid="{12C3B9CA-6540-1F4E-9FB3-7FF445E4FDFD}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20420" xr2:uid="{12C3B9CA-6540-1F4E-9FB3-7FF445E4FDFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="125">
   <si>
     <t>体重</t>
   </si>
@@ -145,12 +145,6 @@
     <t>单次总脂肪</t>
   </si>
   <si>
-    <t>练前餐</t>
-  </si>
-  <si>
-    <t>下午餐</t>
-  </si>
-  <si>
     <t>午餐</t>
   </si>
   <si>
@@ -262,9 +256,6 @@
     <t>具体饮食（运动天）</t>
   </si>
   <si>
-    <t>具体饮食（休息日）</t>
-  </si>
-  <si>
     <t>蛋白粉</t>
   </si>
   <si>
@@ -341,6 +332,84 @@
   </si>
   <si>
     <t>2片粗粮面包</t>
+  </si>
+  <si>
+    <t>第二调整碳水和脂肪 2月25日 按垂直饮食 脂肪不用吃0.8 吃0.66即可</t>
+  </si>
+  <si>
+    <t>每天总摄入</t>
+  </si>
+  <si>
+    <t>150g</t>
+  </si>
+  <si>
+    <t>50g</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>训前</t>
+  </si>
+  <si>
+    <t>训后</t>
+  </si>
+  <si>
+    <t>15点</t>
+  </si>
+  <si>
+    <t>蛋30</t>
+  </si>
+  <si>
+    <t>蛋白20</t>
+  </si>
+  <si>
+    <t>蛋白40</t>
+  </si>
+  <si>
+    <t>碳水45</t>
+  </si>
+  <si>
+    <t>脂肪20+5</t>
+  </si>
+  <si>
+    <t>脂肪25</t>
+  </si>
+  <si>
+    <t>碳水30</t>
+  </si>
+  <si>
+    <t>碳水75</t>
+  </si>
+  <si>
+    <t>脂肪0</t>
+  </si>
+  <si>
+    <t>加入一些垂直饮食的东西，每天吃2-3次，每次3-4个小胡萝卜，生吃</t>
+  </si>
+  <si>
+    <t>10点</t>
+  </si>
+  <si>
+    <t>碳水0</t>
+  </si>
+  <si>
+    <t>5个鸡蛋，2个素包子，蔬菜</t>
+  </si>
+  <si>
+    <t>蛋白粉，小胡萝卜</t>
+  </si>
+  <si>
+    <t>鸡胸，西红柿</t>
+  </si>
+  <si>
+    <t>蛋白粉，亚麻籽油，小胡萝卜</t>
+  </si>
+  <si>
+    <t>蛋白粉，三片白面包，小胡萝卜，盐1/4茶匙500mg钠</t>
+  </si>
+  <si>
+    <t>蛋白粉，一片白面包，盐1/2茶匙1200mg钠</t>
   </si>
 </sst>
 </file>
@@ -356,7 +425,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,6 +444,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -388,10 +463,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -706,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3703C23-CE8F-B847-AC42-DB7D87DF8853}">
-  <dimension ref="A1:E218"/>
+  <dimension ref="A1:E200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="D214" sqref="D214"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="I186" sqref="I186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -966,10 +1042,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D44" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E44" s="1"/>
     </row>
@@ -978,7 +1054,7 @@
         <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D45">
         <f>A46*4+A48*9+A50*4</f>
@@ -1040,12 +1116,12 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -1093,7 +1169,7 @@
         <v>8.6</v>
       </c>
       <c r="D61" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -1107,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -1121,7 +1197,7 @@
         <v>1.4</v>
       </c>
       <c r="D63" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -1129,7 +1205,7 @@
         <v>20</v>
       </c>
       <c r="D64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -1137,13 +1213,13 @@
         <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1184,7 +1260,7 @@
         <v>20</v>
       </c>
       <c r="D71" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -1192,13 +1268,13 @@
         <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -1245,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -1259,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="D79" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -1309,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="D86" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -1320,13 +1396,13 @@
         <v>30</v>
       </c>
       <c r="D87" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -1368,7 +1444,7 @@
         <v>20</v>
       </c>
       <c r="D93" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -1376,7 +1452,7 @@
         <v>50</v>
       </c>
       <c r="D94" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="95" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1424,7 +1500,7 @@
         <v>40</v>
       </c>
       <c r="D100" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -1432,7 +1508,7 @@
         <v>75</v>
       </c>
       <c r="D101" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -1440,13 +1516,13 @@
         <v>25</v>
       </c>
       <c r="D102" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="104" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -1454,520 +1530,368 @@
         <v>40</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>33</v>
-      </c>
-      <c r="B110" t="s">
-        <v>34</v>
-      </c>
-      <c r="C110" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>30</v>
-      </c>
-      <c r="B111">
-        <f>0.3*A102</f>
-        <v>0</v>
+      <c r="A111" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>56</v>
+      </c>
+      <c r="B171" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>37</v>
+      </c>
+      <c r="B173" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>93</v>
+      </c>
+      <c r="B175" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
         <v>30</v>
       </c>
-      <c r="B112" t="s">
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
         <v>31</v>
       </c>
-      <c r="C112" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>12</v>
-      </c>
-      <c r="B113">
-        <v>1.4</v>
-      </c>
-      <c r="C113">
-        <v>8.6</v>
-      </c>
-      <c r="D113" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>0</v>
-      </c>
-      <c r="B114">
-        <v>25</v>
-      </c>
-      <c r="C114">
-        <v>0</v>
-      </c>
-      <c r="D114" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>8.6</v>
-      </c>
-      <c r="B115">
-        <v>50</v>
-      </c>
-      <c r="C115">
-        <v>1.4</v>
-      </c>
-      <c r="D115" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>20</v>
-      </c>
-      <c r="D116" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C117">
-        <v>10</v>
-      </c>
-      <c r="D117" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>33</v>
-      </c>
-      <c r="B120" t="s">
-        <v>34</v>
-      </c>
-      <c r="C120" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121">
-        <v>20</v>
-      </c>
-      <c r="B121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>30</v>
-      </c>
-      <c r="B122" t="s">
-        <v>31</v>
-      </c>
-      <c r="C122" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>33</v>
-      </c>
-      <c r="B127" t="s">
-        <v>34</v>
-      </c>
-      <c r="C127" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128">
-        <v>20</v>
-      </c>
-      <c r="B128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>30</v>
-      </c>
-      <c r="B129" t="s">
-        <v>31</v>
-      </c>
-      <c r="C129" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>33</v>
-      </c>
-      <c r="B132" t="s">
-        <v>34</v>
-      </c>
-      <c r="C132" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133">
-        <v>20</v>
-      </c>
-      <c r="B133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>30</v>
-      </c>
-      <c r="B134" t="s">
-        <v>31</v>
-      </c>
-      <c r="C134" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>33</v>
-      </c>
-      <c r="B138" t="s">
-        <v>34</v>
-      </c>
-      <c r="C138" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139">
-        <v>20</v>
-      </c>
-      <c r="B139">
-        <f>0.2*A102</f>
-        <v>0</v>
-      </c>
-      <c r="C139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>30</v>
-      </c>
-      <c r="B140" t="s">
-        <v>31</v>
-      </c>
-      <c r="C140" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>33</v>
-      </c>
-      <c r="B143" t="s">
-        <v>34</v>
-      </c>
-      <c r="C143" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144">
-        <v>40</v>
-      </c>
-      <c r="B144">
-        <f>0.5*A102</f>
-        <v>0</v>
-      </c>
-      <c r="C144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>30</v>
-      </c>
-      <c r="B145" t="s">
-        <v>31</v>
-      </c>
-      <c r="C145" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146">
-        <v>40</v>
-      </c>
-      <c r="D146" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B147">
-        <v>75</v>
-      </c>
-      <c r="D147" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B148">
-        <v>25</v>
-      </c>
-      <c r="D148" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="B188" t="s">
+        <v>110</v>
+      </c>
+      <c r="C188" t="s">
+        <v>111</v>
+      </c>
+      <c r="D188" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="B190" t="s">
+        <v>118</v>
+      </c>
+      <c r="C190" t="s">
+        <v>115</v>
+      </c>
+      <c r="D190" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="B192" t="s">
+        <v>118</v>
+      </c>
+      <c r="C192" t="s">
+        <v>115</v>
+      </c>
+      <c r="D192" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="B194" t="s">
+        <v>118</v>
+      </c>
+      <c r="C194" t="s">
+        <v>112</v>
+      </c>
+      <c r="D194" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="B196" t="s">
+        <v>113</v>
+      </c>
+      <c r="C196" t="s">
+        <v>115</v>
+      </c>
+      <c r="D196" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="B198" t="s">
+        <v>114</v>
+      </c>
+      <c r="C198" t="s">
+        <v>115</v>
+      </c>
+      <c r="D198" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A214">
-        <v>56</v>
-      </c>
-      <c r="B214" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A216">
-        <v>37</v>
-      </c>
-      <c r="B216" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A218">
-        <v>93</v>
-      </c>
-      <c r="B218" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/nutrition.xlsx
+++ b/nutrition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xurong/Github_Repositories/Bodybuilding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B08E8A-AAC5-884E-84B7-9BF25D7935F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA55815-4FD6-CB46-9812-46092138C53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13920" yWindow="2000" windowWidth="19780" windowHeight="16000" xr2:uid="{12C3B9CA-6540-1F4E-9FB3-7FF445E4FDFD}"/>
+    <workbookView xWindow="34940" yWindow="3220" windowWidth="23700" windowHeight="22560" xr2:uid="{12C3B9CA-6540-1F4E-9FB3-7FF445E4FDFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
   <si>
     <t>体重</t>
   </si>
@@ -118,9 +118,6 @@
     <t>碳水（克）</t>
   </si>
   <si>
-    <t>脂肪（克）（占热量30%）</t>
-  </si>
-  <si>
     <t>蛋白（克）（对于运动人群 1.5-2.0克/公斤）</t>
   </si>
   <si>
@@ -190,9 +187,6 @@
     <t>减少10%-20%的热量摄入，就可以持续减脂，热量缺口&gt;30%不可持续减脂，体重先降后停滞</t>
   </si>
   <si>
-    <t>三大营养素摄入（北大松松总结）</t>
-  </si>
-  <si>
     <t>上述配额动态调整 增肌1-3斤/月 减脂2-5斤/月 就合适 否则就调整碳水量，一次增减碳水的尺度是0.3-0.5倍体重</t>
   </si>
   <si>
@@ -205,12 +199,6 @@
     <t>脂肪对蛋白质有缓释作用</t>
   </si>
   <si>
-    <t>加起来</t>
-  </si>
-  <si>
-    <t>总摄入热量</t>
-  </si>
-  <si>
     <t>清炒菜一人份5g油，重油菜一人份10-15g油</t>
   </si>
   <si>
@@ -223,27 +211,12 @@
     <t>亚麻籽油每天只需要3克，就能满足人体对n3的需求，n6相对容易获取</t>
   </si>
   <si>
-    <t>脂肪摄入量其实不低于20%就不影响睾酮水平，不影响增肌</t>
-  </si>
-  <si>
-    <t>脂肪胃排空要4-5小时，小肠完全吸收3小时，即脂肪吃完要8个小时完全吸收</t>
-  </si>
-  <si>
-    <t>吃脂肪避开胰岛素高峰没意义，也避不开，</t>
-  </si>
-  <si>
-    <t>脂肪延缓胃排空，练前吃觉得肚子有东西，练后吃营养物质吸收慢，所以避开练前练后就可以</t>
-  </si>
-  <si>
     <t>油焖茄子，干锅包菜这种吸油的菜绝对不要吃</t>
   </si>
   <si>
     <t>实际摄入量</t>
   </si>
   <si>
-    <t>5个鸡蛋</t>
-  </si>
-  <si>
     <t>1片切达奶酪</t>
   </si>
   <si>
@@ -256,9 +229,6 @@
     <t>2盎司蔓越莓汁</t>
   </si>
   <si>
-    <t>土豆250g</t>
-  </si>
-  <si>
     <t>菠菜彩椒</t>
   </si>
   <si>
@@ -268,49 +238,49 @@
     <t>菠菜青椒</t>
   </si>
   <si>
-    <t>牛肉200g</t>
-  </si>
-  <si>
-    <t>土豆500g</t>
-  </si>
-  <si>
     <t>西红柿</t>
   </si>
   <si>
-    <t>10点半</t>
-  </si>
-  <si>
     <t>7点半</t>
   </si>
   <si>
-    <t>1点半</t>
-  </si>
-  <si>
-    <t>4点半</t>
-  </si>
-  <si>
-    <t>所以一天需要：</t>
-  </si>
-  <si>
-    <t>鸡蛋5个</t>
-  </si>
-  <si>
-    <t>切达奶酪1片</t>
-  </si>
-  <si>
-    <t>土豆1个</t>
-  </si>
-  <si>
-    <t>小胡萝卜</t>
-  </si>
-  <si>
-    <t>蔓越莓汁</t>
-  </si>
-  <si>
-    <t>牛肉一斤</t>
-  </si>
-  <si>
-    <t>大米260克</t>
+    <t>脂肪（克）</t>
+  </si>
+  <si>
+    <t>米饭</t>
+  </si>
+  <si>
+    <t>牛肉</t>
+  </si>
+  <si>
+    <t>4个鸡蛋</t>
+  </si>
+  <si>
+    <t>中午11点后</t>
+  </si>
+  <si>
+    <t>2点半</t>
+  </si>
+  <si>
+    <t>练前大概5点半</t>
+  </si>
+  <si>
+    <t>练后大概9点半</t>
+  </si>
+  <si>
+    <t>黄油1/4 oz</t>
+  </si>
+  <si>
+    <t>1个土豆加米饭</t>
+  </si>
+  <si>
+    <t>牛肉或三文鱼</t>
+  </si>
+  <si>
+    <t>3个小胡萝卜</t>
+  </si>
+  <si>
+    <t>土豆或燕麦或米饭</t>
   </si>
 </sst>
 </file>
@@ -676,15 +646,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3703C23-CE8F-B847-AC42-DB7D87DF8853}">
-  <dimension ref="A1:V97"/>
+  <dimension ref="A1:V91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="I73" sqref="I73"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="163" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -705,7 +675,7 @@
         <v>7</v>
       </c>
       <c r="O1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
@@ -726,12 +696,12 @@
         <v>63.52</v>
       </c>
       <c r="O2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="O4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -739,7 +709,7 @@
         <v>3</v>
       </c>
       <c r="O5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -747,7 +717,7 @@
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
@@ -756,7 +726,7 @@
         <v>1715</v>
       </c>
       <c r="O7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
@@ -770,7 +740,7 @@
         <v>1742.0320000000002</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V9" s="2"/>
     </row>
@@ -785,7 +755,7 @@
         <v>1789.5900000000001</v>
       </c>
       <c r="O11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
@@ -797,7 +767,7 @@
         <v>1556.1652173913044</v>
       </c>
       <c r="O12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
@@ -805,7 +775,7 @@
         <v>10</v>
       </c>
       <c r="O13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
@@ -814,7 +784,7 @@
         <v>1807</v>
       </c>
       <c r="O14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
@@ -822,7 +792,7 @@
         <v>19</v>
       </c>
       <c r="O15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
@@ -831,12 +801,12 @@
         <v>1715</v>
       </c>
       <c r="O16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -849,7 +819,7 @@
         <v>12</v>
       </c>
       <c r="O19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -862,7 +832,7 @@
         <v>14</v>
       </c>
       <c r="O21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -875,7 +845,7 @@
         <v>16</v>
       </c>
       <c r="O23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -888,7 +858,7 @@
         <v>18</v>
       </c>
       <c r="O25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -899,7 +869,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -907,7 +877,7 @@
         <v>20</v>
       </c>
       <c r="O28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -928,7 +898,7 @@
         <v>22</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
@@ -940,7 +910,7 @@
         <v>23</v>
       </c>
       <c r="O31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
@@ -948,7 +918,7 @@
         <v>24</v>
       </c>
       <c r="O33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
@@ -969,12 +939,12 @@
       </c>
       <c r="E36" s="1"/>
       <c r="O36" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E37" s="1"/>
     </row>
@@ -985,23 +955,23 @@
       </c>
       <c r="E38" s="1"/>
       <c r="O38" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40">
-        <f>(A34*0.3)/9</f>
-        <v>71.966666666666654</v>
+        <f>A2*0.66</f>
+        <v>52.800000000000004</v>
       </c>
       <c r="E40" s="1"/>
       <c r="O40" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
@@ -1013,376 +983,268 @@
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42">
         <f>(A34-(A38*4)-(A40*9))/4</f>
-        <v>217.82500000000002</v>
+        <v>260.95</v>
       </c>
       <c r="E42" s="1"/>
       <c r="O42" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>51</v>
-      </c>
-      <c r="D44" t="s">
-        <v>57</v>
-      </c>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="O44" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45" t="s">
-        <v>56</v>
-      </c>
-      <c r="D45">
-        <f>A46*4+A48*9+A50*4</f>
-        <v>2336</v>
-      </c>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <f>2*A2</f>
-        <v>160</v>
-      </c>
-      <c r="E46" s="1"/>
-      <c r="O46" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>31</v>
-      </c>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <f>0.8*A2</f>
-        <v>64</v>
-      </c>
-      <c r="E48" s="1"/>
-      <c r="O48" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <f>3.5*A2</f>
-        <v>280</v>
-      </c>
-      <c r="E50" s="1"/>
-      <c r="O50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="O52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="O45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
         <f>A34</f>
         <v>2159</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55">
+        <v>24</v>
+      </c>
+      <c r="C55">
+        <v>20</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>7</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D59">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>81</v>
-      </c>
-      <c r="G60" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
-        <v>29</v>
-      </c>
-      <c r="C61" t="s">
-        <v>31</v>
-      </c>
-      <c r="D61" t="s">
-        <v>30</v>
-      </c>
-      <c r="G61" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B62">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C62">
-        <v>25</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="G62" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>69</v>
-      </c>
-      <c r="B63">
-        <v>4</v>
-      </c>
-      <c r="C63">
-        <v>5</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="G63" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>74</v>
-      </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="G64" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>73</v>
       </c>
-      <c r="D65">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66">
+        <v>40</v>
+      </c>
+      <c r="C66">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>65</v>
+      </c>
+      <c r="B75">
+        <v>20</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>71</v>
+      </c>
+      <c r="B80">
+        <v>20</v>
+      </c>
+      <c r="C80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>70</v>
+      </c>
+      <c r="D81">
         <v>50</v>
       </c>
-      <c r="G65" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>70</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="G66" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>72</v>
-      </c>
-      <c r="D67">
-        <v>6</v>
-      </c>
-      <c r="G67" t="s">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>71</v>
-      </c>
-      <c r="B68">
-        <v>3</v>
-      </c>
-      <c r="C68">
-        <v>6</v>
-      </c>
-      <c r="G68" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G69" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>80</v>
-      </c>
-      <c r="G70" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>75</v>
-      </c>
-      <c r="B71">
-        <v>20</v>
-      </c>
-      <c r="C71">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>75</v>
-      </c>
-      <c r="B76">
-        <v>20</v>
-      </c>
-      <c r="C76">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>75</v>
-      </c>
-      <c r="B83">
-        <v>20</v>
-      </c>
-      <c r="C83">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>75</v>
-      </c>
-      <c r="B87">
-        <v>20</v>
-      </c>
-      <c r="C87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>73</v>
-      </c>
-      <c r="D88">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>77</v>
-      </c>
+      <c r="B85">
+        <v>40</v>
+      </c>
+      <c r="C85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>78</v>
+      </c>
+      <c r="D86">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B90">
+        <f>SUM(B55:B89)</f>
+        <v>152</v>
+      </c>
+      <c r="C90">
+        <f>SUM(C55:C89)</f>
+        <v>66</v>
+      </c>
+      <c r="D90">
+        <f>SUM(D55:D89)</f>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B91">
-        <v>40</v>
+        <f>B90*4</f>
+        <v>608</v>
       </c>
       <c r="C91">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>78</v>
-      </c>
-      <c r="D92">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B96">
-        <f>SUM(B62:B95)</f>
-        <v>157</v>
-      </c>
-      <c r="C96">
-        <f>SUM(C62:C95)</f>
-        <v>64</v>
-      </c>
-      <c r="D96">
-        <f>SUM(D62:D95)</f>
-        <v>206</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B97">
-        <f>B96*4</f>
-        <v>628</v>
-      </c>
-      <c r="C97">
-        <f>C96*9</f>
-        <v>576</v>
-      </c>
-      <c r="D97">
-        <f>D96*4</f>
-        <v>824</v>
-      </c>
-      <c r="E97">
-        <f>SUM(B97:D97)</f>
-        <v>2028</v>
+        <f>C90*9</f>
+        <v>594</v>
+      </c>
+      <c r="D91">
+        <f>D90*4</f>
+        <v>784</v>
+      </c>
+      <c r="E91">
+        <f>SUM(B91:D91)</f>
+        <v>1986</v>
       </c>
     </row>
   </sheetData>

--- a/nutrition.xlsx
+++ b/nutrition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xurong/Github_Repositories/Bodybuilding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA55815-4FD6-CB46-9812-46092138C53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E940D0D-02A3-4844-B08C-909C1241E12C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34940" yWindow="3220" windowWidth="23700" windowHeight="22560" xr2:uid="{12C3B9CA-6540-1F4E-9FB3-7FF445E4FDFD}"/>
+    <workbookView xWindow="14920" yWindow="760" windowWidth="18340" windowHeight="20220" xr2:uid="{12C3B9CA-6540-1F4E-9FB3-7FF445E4FDFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
   <si>
     <t>体重</t>
   </si>
@@ -217,9 +217,6 @@
     <t>实际摄入量</t>
   </si>
   <si>
-    <t>1片切达奶酪</t>
-  </si>
-  <si>
     <t>4个小胡萝卜</t>
   </si>
   <si>
@@ -232,55 +229,61 @@
     <t>菠菜彩椒</t>
   </si>
   <si>
-    <t>牛肉100g</t>
-  </si>
-  <si>
     <t>菠菜青椒</t>
   </si>
   <si>
-    <t>西红柿</t>
-  </si>
-  <si>
     <t>7点半</t>
   </si>
   <si>
     <t>脂肪（克）</t>
   </si>
   <si>
-    <t>米饭</t>
-  </si>
-  <si>
     <t>牛肉</t>
   </si>
   <si>
     <t>4个鸡蛋</t>
   </si>
   <si>
-    <t>中午11点后</t>
-  </si>
-  <si>
-    <t>2点半</t>
-  </si>
-  <si>
-    <t>练前大概5点半</t>
-  </si>
-  <si>
     <t>练后大概9点半</t>
   </si>
   <si>
-    <t>黄油1/4 oz</t>
-  </si>
-  <si>
-    <t>1个土豆加米饭</t>
-  </si>
-  <si>
-    <t>牛肉或三文鱼</t>
-  </si>
-  <si>
     <t>3个小胡萝卜</t>
   </si>
   <si>
-    <t>土豆或燕麦或米饭</t>
+    <t>11点半</t>
+  </si>
+  <si>
+    <t>酸奶</t>
+  </si>
+  <si>
+    <t>1个橙子</t>
+  </si>
+  <si>
+    <t>燕麦</t>
+  </si>
+  <si>
+    <t>希腊酸奶</t>
+  </si>
+  <si>
+    <t>练前大概6点</t>
+  </si>
+  <si>
+    <t>土豆</t>
+  </si>
+  <si>
+    <t>三个胡萝卜</t>
+  </si>
+  <si>
+    <t>黄油10g</t>
+  </si>
+  <si>
+    <t>切达奶酪20g</t>
+  </si>
+  <si>
+    <t>45g燕麦</t>
+  </si>
+  <si>
+    <t>蛋白粉</t>
   </si>
 </sst>
 </file>
@@ -296,7 +299,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,6 +318,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -328,10 +337,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3703C23-CE8F-B847-AC42-DB7D87DF8853}">
   <dimension ref="A1:V91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="163" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -960,7 +970,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E39" s="1"/>
     </row>
@@ -1005,24 +1015,24 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <f>A34</f>
         <v>2159</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>28</v>
       </c>
@@ -1033,9 +1043,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B55">
         <v>24</v>
@@ -1046,10 +1056,11 @@
       <c r="D55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B56">
         <v>5</v>
@@ -1060,10 +1071,11 @@
       <c r="D56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1071,180 +1083,301 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
       </c>
       <c r="C58">
+        <v>9</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>25</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" t="s">
         <v>81</v>
       </c>
-      <c r="D59">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>70</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C62">
         <v>6</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>79</v>
-      </c>
-      <c r="B66">
-        <v>40</v>
-      </c>
-      <c r="C66">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64">
+        <v>10</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>35</v>
+      </c>
+      <c r="C68">
+        <v>5</v>
+      </c>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>60</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76">
+        <v>20</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>65</v>
-      </c>
-      <c r="B75">
-        <v>20</v>
-      </c>
-      <c r="C75">
+      <c r="B77">
+        <v>5</v>
+      </c>
+      <c r="C77">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D77">
+        <v>25</v>
+      </c>
+      <c r="E77" s="3"/>
+      <c r="F77" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>71</v>
-      </c>
-      <c r="B80">
-        <v>20</v>
-      </c>
-      <c r="C80">
-        <v>4</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="B81">
+        <v>35</v>
+      </c>
+      <c r="C81">
+        <v>5</v>
       </c>
       <c r="D81">
-        <v>50</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>77</v>
+      </c>
+      <c r="B82">
+        <v>5</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>25</v>
+      </c>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>73</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>25</v>
+      </c>
+      <c r="E83" s="3"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>76</v>
+        <v>63</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B85">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C85">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>5</v>
+      </c>
+      <c r="E85" s="3"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>78</v>
       </c>
-      <c r="D86">
-        <v>100</v>
-      </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B90">
         <f>SUM(B55:B89)</f>
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C90">
         <f>SUM(C55:C89)</f>
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D90">
         <f>SUM(D55:D89)</f>
-        <v>196</v>
+        <v>117</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B91">
         <f>B90*4</f>
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="C91">
         <f>C90*9</f>
-        <v>594</v>
+        <v>540</v>
       </c>
       <c r="D91">
         <f>D90*4</f>
-        <v>784</v>
+        <v>468</v>
       </c>
       <c r="E91">
         <f>SUM(B91:D91)</f>
-        <v>1986</v>
+        <v>1632</v>
       </c>
     </row>
   </sheetData>

--- a/nutrition.xlsx
+++ b/nutrition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xurong/Github_Repositories/Bodybuilding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E940D0D-02A3-4844-B08C-909C1241E12C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA6D88C-D483-CE4F-BF7C-359952C8E129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14920" yWindow="760" windowWidth="18340" windowHeight="20220" xr2:uid="{12C3B9CA-6540-1F4E-9FB3-7FF445E4FDFD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="84">
   <si>
     <t>体重</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>蛋白粉</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -656,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3703C23-CE8F-B847-AC42-DB7D87DF8853}">
-  <dimension ref="A1:V91"/>
+  <dimension ref="A1:V96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76"/>
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1380,6 +1383,11 @@
         <v>1632</v>
       </c>
     </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
